--- a/20SetembroAtualizada.xlsx
+++ b/20SetembroAtualizada.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,12 +65,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,173 +729,180 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>45505</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>1723679</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>MARIA TERESINHA PAROLIM DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>073.857.018-41</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>19989106047</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Ativação Controle</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>CLARO CONTROLE ON+ 18GB</t>
         </is>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" s="3" t="n">
+        <v>45555</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>1935716661</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>SUELEN APARECIDA BERNEGOSSI</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>009 LEME</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>45555</v>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="5" t="n">
         <v>45505</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="6" t="n">
         <v>1724118</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>TATIANA RODRIGUES CARDOSO</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>019.481.019-47</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>12981797827</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Ativação Pós</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>CLARO PÓS ON 100GB COMBO</t>
         </is>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" s="5" t="n">
+        <v>45555</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>12981797827</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>ANDERSON DOS SANTOS SOUZA MAIA</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>tati_rcardoso@yahoo.com.br</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>167 SAO SEBASTIÃO</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>45555</v>
-      </c>
-      <c r="V6" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="T6" s="6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>45555</v>
+      </c>
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
